--- a/Code/Results/Cases/Case_5_241/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_241/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.62122368586419</v>
+        <v>19.41746662583399</v>
       </c>
       <c r="C2">
-        <v>22.64058397507998</v>
+        <v>16.72799125855175</v>
       </c>
       <c r="D2">
-        <v>3.246801717550443</v>
+        <v>6.596485066606035</v>
       </c>
       <c r="E2">
-        <v>9.011100991602222</v>
+        <v>12.54334689024369</v>
       </c>
       <c r="F2">
-        <v>43.1015284348498</v>
+        <v>45.95126704239517</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>24.32915638264215</v>
+        <v>29.1645158382879</v>
       </c>
       <c r="J2">
-        <v>6.811137514047353</v>
+        <v>10.34759226140388</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.85203544263271</v>
+        <v>18.95060772146521</v>
       </c>
       <c r="C3">
-        <v>21.00189708481087</v>
+        <v>16.24472651386505</v>
       </c>
       <c r="D3">
-        <v>3.168625496998728</v>
+        <v>6.599381963312862</v>
       </c>
       <c r="E3">
-        <v>8.66362074298655</v>
+        <v>12.52409565201733</v>
       </c>
       <c r="F3">
-        <v>41.16750103069094</v>
+        <v>45.68090976712895</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>23.66079552088444</v>
+        <v>29.12847201596303</v>
       </c>
       <c r="J3">
-        <v>6.67341130875803</v>
+        <v>10.35653013457559</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.71276021846957</v>
+        <v>18.66409336860236</v>
       </c>
       <c r="C4">
-        <v>19.95133318888962</v>
+        <v>15.94628212193704</v>
       </c>
       <c r="D4">
-        <v>3.120365864916464</v>
+        <v>6.601847285039836</v>
       </c>
       <c r="E4">
-        <v>8.45130361867753</v>
+        <v>12.51497466854458</v>
       </c>
       <c r="F4">
-        <v>39.99393525986095</v>
+        <v>45.52828976688014</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>23.27419354261129</v>
+        <v>29.11418353287728</v>
       </c>
       <c r="J4">
-        <v>6.593532410806914</v>
+        <v>10.36396920002342</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.23492766218585</v>
+        <v>18.54756221238148</v>
       </c>
       <c r="C5">
-        <v>19.52245252154131</v>
+        <v>15.82444127546175</v>
       </c>
       <c r="D5">
-        <v>3.100660548141803</v>
+        <v>6.603025774198426</v>
       </c>
       <c r="E5">
-        <v>8.365110827764113</v>
+        <v>12.51193858857168</v>
       </c>
       <c r="F5">
-        <v>39.51942248996252</v>
+        <v>45.46949389641871</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>23.12242922343105</v>
+        <v>29.11032478413129</v>
       </c>
       <c r="J5">
-        <v>6.562127549845982</v>
+        <v>10.36749034192591</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.15475782423307</v>
+        <v>18.52823162319701</v>
       </c>
       <c r="C6">
-        <v>19.45191617082194</v>
+        <v>15.80420259586319</v>
       </c>
       <c r="D6">
-        <v>3.097386932739275</v>
+        <v>6.603231996308604</v>
       </c>
       <c r="E6">
-        <v>8.350820655506526</v>
+        <v>12.51147561726947</v>
       </c>
       <c r="F6">
-        <v>39.44086315415679</v>
+        <v>45.45993697096493</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>23.09757214907111</v>
+        <v>29.10980238550898</v>
       </c>
       <c r="J6">
-        <v>6.556981143005001</v>
+        <v>10.36810456805997</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.70637124306248</v>
+        <v>18.66252061825097</v>
       </c>
       <c r="C7">
-        <v>19.945452452062</v>
+        <v>15.9446395492065</v>
       </c>
       <c r="D7">
-        <v>3.120100234632399</v>
+        <v>6.60186247306553</v>
       </c>
       <c r="E7">
-        <v>8.450139763866108</v>
+        <v>12.51493096408207</v>
       </c>
       <c r="F7">
-        <v>39.98752037488323</v>
+        <v>45.52748302721321</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>23.27212365702396</v>
+        <v>29.11412355259153</v>
       </c>
       <c r="J7">
-        <v>6.593104272606536</v>
+        <v>10.36401470612511</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.02204807065511</v>
+        <v>19.25657748970477</v>
       </c>
       <c r="C8">
-        <v>22.08464414064559</v>
+        <v>16.56184055656843</v>
       </c>
       <c r="D8">
-        <v>3.219915289493502</v>
+        <v>6.597342129388995</v>
       </c>
       <c r="E8">
-        <v>8.89110993964217</v>
+        <v>12.53615017023911</v>
       </c>
       <c r="F8">
-        <v>42.43188507716001</v>
+        <v>45.85529265750294</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>24.09364916536661</v>
+        <v>29.15045581235246</v>
       </c>
       <c r="J8">
-        <v>6.762657120900347</v>
+        <v>10.35026852355536</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.15539953833386</v>
+        <v>20.41457352546956</v>
       </c>
       <c r="C9">
-        <v>25.93896395849637</v>
+        <v>17.74990608433522</v>
       </c>
       <c r="D9">
-        <v>3.412571608821267</v>
+        <v>6.593873206090761</v>
       </c>
       <c r="E9">
-        <v>9.762075560722524</v>
+        <v>12.5990701093564</v>
       </c>
       <c r="F9">
-        <v>47.33221496222682</v>
+        <v>46.6025389063586</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>25.90298524385279</v>
+        <v>29.28421873171781</v>
       </c>
       <c r="J9">
-        <v>7.133955785220358</v>
+        <v>10.33883335615768</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.96424402221518</v>
+        <v>21.25092261244774</v>
       </c>
       <c r="C10">
-        <v>28.58333590238266</v>
+        <v>18.59854820119009</v>
       </c>
       <c r="D10">
-        <v>3.551060332929985</v>
+        <v>6.594543222289396</v>
       </c>
       <c r="E10">
-        <v>10.40476364979663</v>
+        <v>12.65811267732865</v>
       </c>
       <c r="F10">
-        <v>51.0038962316782</v>
+        <v>47.21245118728808</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>27.36896334404817</v>
+        <v>29.42088862709652</v>
       </c>
       <c r="J10">
-        <v>7.433165485580639</v>
+        <v>10.33994146324607</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.19809523312757</v>
+        <v>21.62630319079016</v>
       </c>
       <c r="C11">
-        <v>29.75138708733131</v>
+        <v>18.97737736105558</v>
       </c>
       <c r="D11">
-        <v>3.61321154881056</v>
+        <v>6.595531666670415</v>
       </c>
       <c r="E11">
-        <v>10.69808668553164</v>
+        <v>12.68770771906756</v>
       </c>
       <c r="F11">
-        <v>52.69478568491488</v>
+        <v>47.50244644421336</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>28.07004450330415</v>
+        <v>29.49142252029701</v>
       </c>
       <c r="J11">
-        <v>7.575831952643433</v>
+        <v>10.34251771449943</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.65955880921094</v>
+        <v>21.76757087484813</v>
       </c>
       <c r="C12">
-        <v>30.18926970209</v>
+        <v>19.119645795421</v>
       </c>
       <c r="D12">
-        <v>3.636613629056446</v>
+        <v>6.596002961247622</v>
       </c>
       <c r="E12">
-        <v>10.80936964984861</v>
+        <v>12.69930318441807</v>
       </c>
       <c r="F12">
-        <v>53.33875753594155</v>
+        <v>47.61399790117384</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>28.3409266938376</v>
+        <v>29.5193328616526</v>
       </c>
       <c r="J12">
-        <v>7.630886767604071</v>
+        <v>10.34379153494249</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.56042129935749</v>
+        <v>21.7371878002143</v>
       </c>
       <c r="C13">
-        <v>30.09515054575333</v>
+        <v>19.08906068610657</v>
       </c>
       <c r="D13">
-        <v>3.631579636433602</v>
+        <v>6.595897166878228</v>
       </c>
       <c r="E13">
-        <v>10.78539210351099</v>
+        <v>12.69678870121604</v>
       </c>
       <c r="F13">
-        <v>53.19988943226394</v>
+        <v>47.58989717758563</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>28.28233839327293</v>
+        <v>29.51326851754302</v>
       </c>
       <c r="J13">
-        <v>7.618982283359443</v>
+        <v>10.34350392750893</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.23617229657863</v>
+        <v>21.63794384215976</v>
       </c>
       <c r="C14">
-        <v>29.78749706911762</v>
+        <v>18.98910643339971</v>
       </c>
       <c r="D14">
-        <v>3.615139573199856</v>
+        <v>6.595568504078248</v>
       </c>
       <c r="E14">
-        <v>10.70723729937037</v>
+        <v>12.68865392994188</v>
       </c>
       <c r="F14">
-        <v>52.74768712857941</v>
+        <v>47.51158944575306</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>28.09221879736156</v>
+        <v>29.49369467417633</v>
       </c>
       <c r="J14">
-        <v>7.580340120937676</v>
+        <v>10.3426165340985</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.0368268171985</v>
+        <v>21.57703507463602</v>
       </c>
       <c r="C15">
-        <v>29.59849227586779</v>
+        <v>18.9277229870329</v>
       </c>
       <c r="D15">
-        <v>3.605051939093407</v>
+        <v>6.595379780572258</v>
       </c>
       <c r="E15">
-        <v>10.65939501974458</v>
+        <v>12.68372158049085</v>
       </c>
       <c r="F15">
-        <v>52.47120334483422</v>
+        <v>47.46384778618598</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>27.97648423851018</v>
+        <v>29.4818614100503</v>
       </c>
       <c r="J15">
-        <v>7.556807800271079</v>
+        <v>10.34211182637187</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.88276999246367</v>
+        <v>21.22627528954488</v>
       </c>
       <c r="C16">
-        <v>28.50634651582755</v>
+        <v>18.57363257334837</v>
       </c>
       <c r="D16">
-        <v>3.546980488660726</v>
+        <v>6.594492269745612</v>
       </c>
       <c r="E16">
-        <v>10.38561874486074</v>
+        <v>12.65623321557189</v>
       </c>
       <c r="F16">
-        <v>50.89386180470397</v>
+        <v>47.19374607072802</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>27.32387274790481</v>
+        <v>29.41644722949617</v>
       </c>
       <c r="J16">
-        <v>7.423980803475466</v>
+        <v>10.33981482364702</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.16390853587528</v>
+        <v>21.00968407552715</v>
       </c>
       <c r="C17">
-        <v>27.82779821501884</v>
+        <v>18.35445042443675</v>
       </c>
       <c r="D17">
-        <v>3.511129115621147</v>
+        <v>6.594121978002433</v>
       </c>
       <c r="E17">
-        <v>10.21794999757038</v>
+        <v>12.64006741122453</v>
       </c>
       <c r="F17">
-        <v>49.93191568296182</v>
+        <v>47.03121358194267</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>26.93258385872247</v>
+        <v>29.37845881784987</v>
       </c>
       <c r="J17">
-        <v>7.344230452479546</v>
+        <v>10.33893666528562</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.74626845275691</v>
+        <v>20.88463678269206</v>
       </c>
       <c r="C18">
-        <v>27.43419083784583</v>
+        <v>18.22771075348651</v>
       </c>
       <c r="D18">
-        <v>3.490428986900154</v>
+        <v>6.593973424025161</v>
       </c>
       <c r="E18">
-        <v>10.12159552841482</v>
+        <v>12.63102715083632</v>
       </c>
       <c r="F18">
-        <v>49.38051419845819</v>
+        <v>46.9389141112319</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>26.71070943253837</v>
+        <v>29.3573961932359</v>
       </c>
       <c r="J18">
-        <v>7.298970764638642</v>
+        <v>10.33862660786143</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.60413130993099</v>
+        <v>20.84222200686634</v>
       </c>
       <c r="C19">
-        <v>27.30033507310529</v>
+        <v>18.18468820046666</v>
       </c>
       <c r="D19">
-        <v>3.483407053399436</v>
+        <v>6.593934231644681</v>
       </c>
       <c r="E19">
-        <v>10.08898449364854</v>
+        <v>12.62801071029356</v>
       </c>
       <c r="F19">
-        <v>49.19412555254464</v>
+        <v>46.90786858371656</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>26.6361206663253</v>
+        <v>29.35039999359737</v>
       </c>
       <c r="J19">
-        <v>7.283749147306012</v>
+        <v>10.33855511434695</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.24086047750284</v>
+        <v>21.03279032380277</v>
       </c>
       <c r="C20">
-        <v>27.90037100089376</v>
+        <v>18.37785338911557</v>
       </c>
       <c r="D20">
-        <v>3.514953863600344</v>
+        <v>6.594154737623609</v>
       </c>
       <c r="E20">
-        <v>10.23578952576063</v>
+        <v>12.64176163357368</v>
       </c>
       <c r="F20">
-        <v>50.03411718761283</v>
+        <v>47.04839328150271</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>26.97390451273739</v>
+        <v>29.38242127288035</v>
       </c>
       <c r="J20">
-        <v>7.352656250114455</v>
+        <v>10.33900995875591</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.33156386736989</v>
+        <v>21.66711924577202</v>
       </c>
       <c r="C21">
-        <v>29.87797747440966</v>
+        <v>19.01849871185975</v>
       </c>
       <c r="D21">
-        <v>3.619972105067767</v>
+        <v>6.595662418526989</v>
       </c>
       <c r="E21">
-        <v>10.73018687132323</v>
+        <v>12.69103280890239</v>
       </c>
       <c r="F21">
-        <v>52.88040340468437</v>
+        <v>47.53454375060902</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>28.14791062915995</v>
+        <v>29.49941142358735</v>
       </c>
       <c r="J21">
-        <v>7.591661497293559</v>
+        <v>10.34286908724339</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.66465510130283</v>
+        <v>22.07649414427978</v>
       </c>
       <c r="C22">
-        <v>31.14497191628327</v>
+        <v>19.43022626763608</v>
       </c>
       <c r="D22">
-        <v>3.687828599904527</v>
+        <v>6.597212499407651</v>
       </c>
       <c r="E22">
-        <v>11.05457700136039</v>
+        <v>12.72549598711753</v>
       </c>
       <c r="F22">
-        <v>54.76252792416776</v>
+        <v>47.86235921231881</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>28.94696771976776</v>
+        <v>29.58286762590106</v>
       </c>
       <c r="J22">
-        <v>7.753927053941537</v>
+        <v>10.34712969354214</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.95600182403619</v>
+        <v>21.85852524198411</v>
       </c>
       <c r="C23">
-        <v>30.47086284601005</v>
+        <v>19.21116248563492</v>
       </c>
       <c r="D23">
-        <v>3.651686294107492</v>
+        <v>6.596333958065245</v>
       </c>
       <c r="E23">
-        <v>10.88129407373134</v>
+        <v>12.70689717935936</v>
       </c>
       <c r="F23">
-        <v>53.7556932397291</v>
+        <v>47.68649808026261</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>28.51739792191422</v>
+        <v>29.53768638124903</v>
       </c>
       <c r="J23">
-        <v>7.666733307966946</v>
+        <v>10.34469661102914</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.20608411574901</v>
+        <v>21.02234561615958</v>
       </c>
       <c r="C24">
-        <v>27.86757179142359</v>
+        <v>18.36727516791673</v>
       </c>
       <c r="D24">
-        <v>3.513224970385477</v>
+        <v>6.594139726520769</v>
       </c>
       <c r="E24">
-        <v>10.22772415351773</v>
+        <v>12.64099488513186</v>
       </c>
       <c r="F24">
-        <v>49.98790684679085</v>
+        <v>47.0406227752761</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>26.95521387761562</v>
+        <v>29.38062742536151</v>
       </c>
       <c r="J24">
-        <v>7.348845116036939</v>
+        <v>10.33897621601867</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.07891023653802</v>
+        <v>20.10313771746582</v>
       </c>
       <c r="C25">
-        <v>24.93086992330139</v>
+        <v>17.43203923071045</v>
       </c>
       <c r="D25">
-        <v>3.360915195522002</v>
+        <v>6.594241253644697</v>
       </c>
       <c r="E25">
-        <v>9.525983912646751</v>
+        <v>12.5797833842682</v>
       </c>
       <c r="F25">
-        <v>45.99504843438654</v>
+        <v>46.38947200627952</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>25.39080451921368</v>
+        <v>29.24130302879481</v>
       </c>
       <c r="J25">
-        <v>7.029101181063012</v>
+        <v>10.34025974244614</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_241/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_241/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.41746662583399</v>
+        <v>24.6212236858643</v>
       </c>
       <c r="C2">
-        <v>16.72799125855175</v>
+        <v>22.64058397508002</v>
       </c>
       <c r="D2">
-        <v>6.596485066606035</v>
+        <v>3.246801717550385</v>
       </c>
       <c r="E2">
-        <v>12.54334689024369</v>
+        <v>9.011100991602252</v>
       </c>
       <c r="F2">
-        <v>45.95126704239517</v>
+        <v>43.1015284348497</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>29.1645158382879</v>
+        <v>24.32915638264202</v>
       </c>
       <c r="J2">
-        <v>10.34759226140388</v>
+        <v>6.811137514047412</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.95060772146521</v>
+        <v>22.85203544263254</v>
       </c>
       <c r="C3">
-        <v>16.24472651386505</v>
+        <v>21.00189708481074</v>
       </c>
       <c r="D3">
-        <v>6.599381963312862</v>
+        <v>3.168625496998412</v>
       </c>
       <c r="E3">
-        <v>12.52409565201733</v>
+        <v>8.663620742986472</v>
       </c>
       <c r="F3">
-        <v>45.68090976712895</v>
+        <v>41.16750103069115</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>29.12847201596303</v>
+        <v>23.66079552088479</v>
       </c>
       <c r="J3">
-        <v>10.35653013457559</v>
+        <v>6.673411308758103</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.66409336860236</v>
+        <v>21.71276021846952</v>
       </c>
       <c r="C4">
-        <v>15.94628212193704</v>
+        <v>19.95133318888967</v>
       </c>
       <c r="D4">
-        <v>6.601847285039836</v>
+        <v>3.120365864916544</v>
       </c>
       <c r="E4">
-        <v>12.51497466854458</v>
+        <v>8.451303618677642</v>
       </c>
       <c r="F4">
-        <v>45.52828976688014</v>
+        <v>39.99393525986098</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>29.11418353287728</v>
+        <v>23.27419354261128</v>
       </c>
       <c r="J4">
-        <v>10.36396920002342</v>
+        <v>6.593532410806993</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.54756221238148</v>
+        <v>21.23492766218579</v>
       </c>
       <c r="C5">
-        <v>15.82444127546175</v>
+        <v>19.52245252154131</v>
       </c>
       <c r="D5">
-        <v>6.603025774198426</v>
+        <v>3.100660548141885</v>
       </c>
       <c r="E5">
-        <v>12.51193858857168</v>
+        <v>8.365110827764049</v>
       </c>
       <c r="F5">
-        <v>45.46949389641871</v>
+        <v>39.5194224899628</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>29.11032478413129</v>
+        <v>23.12242922343126</v>
       </c>
       <c r="J5">
-        <v>10.36749034192591</v>
+        <v>6.562127549845906</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.52823162319701</v>
+        <v>21.15475782423307</v>
       </c>
       <c r="C6">
-        <v>15.80420259586319</v>
+        <v>19.45191617082192</v>
       </c>
       <c r="D6">
-        <v>6.603231996308604</v>
+        <v>3.097386932739187</v>
       </c>
       <c r="E6">
-        <v>12.51147561726947</v>
+        <v>8.350820655506476</v>
       </c>
       <c r="F6">
-        <v>45.45993697096493</v>
+        <v>39.44086315415662</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>29.10980238550898</v>
+        <v>23.097572149071</v>
       </c>
       <c r="J6">
-        <v>10.36810456805997</v>
+        <v>6.55698114300505</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.66252061825097</v>
+        <v>21.70637124306244</v>
       </c>
       <c r="C7">
-        <v>15.9446395492065</v>
+        <v>19.94545245206202</v>
       </c>
       <c r="D7">
-        <v>6.60186247306553</v>
+        <v>3.120100234632392</v>
       </c>
       <c r="E7">
-        <v>12.51493096408207</v>
+        <v>8.450139763866121</v>
       </c>
       <c r="F7">
-        <v>45.52748302721321</v>
+        <v>39.98752037488332</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>29.11412355259153</v>
+        <v>23.27212365702406</v>
       </c>
       <c r="J7">
-        <v>10.36401470612511</v>
+        <v>6.593104272606546</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.25657748970477</v>
+        <v>24.02204807065518</v>
       </c>
       <c r="C8">
-        <v>16.56184055656843</v>
+        <v>22.08464414064565</v>
       </c>
       <c r="D8">
-        <v>6.597342129388995</v>
+        <v>3.219915289493438</v>
       </c>
       <c r="E8">
-        <v>12.53615017023911</v>
+        <v>8.891109939642156</v>
       </c>
       <c r="F8">
-        <v>45.85529265750294</v>
+        <v>42.43188507715998</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>29.15045581235246</v>
+        <v>24.09364916536659</v>
       </c>
       <c r="J8">
-        <v>10.35026852355536</v>
+        <v>6.762657120900374</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.41457352546956</v>
+        <v>28.15539953833391</v>
       </c>
       <c r="C9">
-        <v>17.74990608433522</v>
+        <v>25.93896395849639</v>
       </c>
       <c r="D9">
-        <v>6.593873206090761</v>
+        <v>3.412571608821047</v>
       </c>
       <c r="E9">
-        <v>12.5990701093564</v>
+        <v>9.762075560722511</v>
       </c>
       <c r="F9">
-        <v>46.6025389063586</v>
+        <v>47.33221496222694</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>29.28421873171781</v>
+        <v>25.90298524385292</v>
       </c>
       <c r="J9">
-        <v>10.33883335615768</v>
+        <v>7.133955785220393</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.25092261244774</v>
+        <v>30.96424402221529</v>
       </c>
       <c r="C10">
-        <v>18.59854820119009</v>
+        <v>28.58333590238276</v>
       </c>
       <c r="D10">
-        <v>6.594543222289396</v>
+        <v>3.551060332930019</v>
       </c>
       <c r="E10">
-        <v>12.65811267732865</v>
+        <v>10.40476364979664</v>
       </c>
       <c r="F10">
-        <v>47.21245118728808</v>
+        <v>51.00389623167836</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>29.42088862709652</v>
+        <v>27.36896334404821</v>
       </c>
       <c r="J10">
-        <v>10.33994146324607</v>
+        <v>7.433165485580664</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.62630319079016</v>
+        <v>32.19809523312767</v>
       </c>
       <c r="C11">
-        <v>18.97737736105558</v>
+        <v>29.75138708733139</v>
       </c>
       <c r="D11">
-        <v>6.595531666670415</v>
+        <v>3.613211548810621</v>
       </c>
       <c r="E11">
-        <v>12.68770771906756</v>
+        <v>10.69808668553166</v>
       </c>
       <c r="F11">
-        <v>47.50244644421336</v>
+        <v>52.69478568491506</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>29.49142252029701</v>
+        <v>28.07004450330422</v>
       </c>
       <c r="J11">
-        <v>10.34251771449943</v>
+        <v>7.575831952643433</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.76757087484813</v>
+        <v>32.65955880921094</v>
       </c>
       <c r="C12">
-        <v>19.119645795421</v>
+        <v>30.18926970208996</v>
       </c>
       <c r="D12">
-        <v>6.596002961247622</v>
+        <v>3.636613629056461</v>
       </c>
       <c r="E12">
-        <v>12.69930318441807</v>
+        <v>10.80936964984864</v>
       </c>
       <c r="F12">
-        <v>47.61399790117384</v>
+        <v>53.33875753594164</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>29.5193328616526</v>
+        <v>28.34092669383767</v>
       </c>
       <c r="J12">
-        <v>10.34379153494249</v>
+        <v>7.630886767604108</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.7371878002143</v>
+        <v>32.56042129935743</v>
       </c>
       <c r="C13">
-        <v>19.08906068610657</v>
+        <v>30.09515054575328</v>
       </c>
       <c r="D13">
-        <v>6.595897166878228</v>
+        <v>3.631579636433639</v>
       </c>
       <c r="E13">
-        <v>12.69678870121604</v>
+        <v>10.785392103511</v>
       </c>
       <c r="F13">
-        <v>47.58989717758563</v>
+        <v>53.19988943226402</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>29.51326851754302</v>
+        <v>28.28233839327298</v>
       </c>
       <c r="J13">
-        <v>10.34350392750893</v>
+        <v>7.618982283359456</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.63794384215976</v>
+        <v>32.23617229657869</v>
       </c>
       <c r="C14">
-        <v>18.98910643339971</v>
+        <v>29.7874970691176</v>
       </c>
       <c r="D14">
-        <v>6.595568504078248</v>
+        <v>3.615139573199767</v>
       </c>
       <c r="E14">
-        <v>12.68865392994188</v>
+        <v>10.70723729937034</v>
       </c>
       <c r="F14">
-        <v>47.51158944575306</v>
+        <v>52.74768712857952</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>29.49369467417633</v>
+        <v>28.09221879736162</v>
       </c>
       <c r="J14">
-        <v>10.3426165340985</v>
+        <v>7.580340120937651</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.57703507463602</v>
+        <v>32.0368268171986</v>
       </c>
       <c r="C15">
-        <v>18.9277229870329</v>
+        <v>29.59849227586783</v>
       </c>
       <c r="D15">
-        <v>6.595379780572258</v>
+        <v>3.605051939093505</v>
       </c>
       <c r="E15">
-        <v>12.68372158049085</v>
+        <v>10.65939501974461</v>
       </c>
       <c r="F15">
-        <v>47.46384778618598</v>
+        <v>52.47120334483443</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>29.4818614100503</v>
+        <v>27.97648423851026</v>
       </c>
       <c r="J15">
-        <v>10.34211182637187</v>
+        <v>7.556807800271108</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.22627528954488</v>
+        <v>30.88276999246379</v>
       </c>
       <c r="C16">
-        <v>18.57363257334837</v>
+        <v>28.50634651582759</v>
       </c>
       <c r="D16">
-        <v>6.594492269745612</v>
+        <v>3.546980488660723</v>
       </c>
       <c r="E16">
-        <v>12.65623321557189</v>
+        <v>10.38561874486076</v>
       </c>
       <c r="F16">
-        <v>47.19374607072802</v>
+        <v>50.89386180470424</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>29.41644722949617</v>
+        <v>27.32387274790495</v>
       </c>
       <c r="J16">
-        <v>10.33981482364702</v>
+        <v>7.423980803475498</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.00968407552715</v>
+        <v>30.16390853587523</v>
       </c>
       <c r="C17">
-        <v>18.35445042443675</v>
+        <v>27.82779821501866</v>
       </c>
       <c r="D17">
-        <v>6.594121978002433</v>
+        <v>3.511129115621003</v>
       </c>
       <c r="E17">
-        <v>12.64006741122453</v>
+        <v>10.21794999757033</v>
       </c>
       <c r="F17">
-        <v>47.03121358194267</v>
+        <v>49.93191568296182</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>29.37845881784987</v>
+        <v>26.93258385872254</v>
       </c>
       <c r="J17">
-        <v>10.33893666528562</v>
+        <v>7.344230452479492</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.88463678269206</v>
+        <v>29.74626845275684</v>
       </c>
       <c r="C18">
-        <v>18.22771075348651</v>
+        <v>27.43419083784581</v>
       </c>
       <c r="D18">
-        <v>6.593973424025161</v>
+        <v>3.490428986900049</v>
       </c>
       <c r="E18">
-        <v>12.63102715083632</v>
+        <v>10.12159552841481</v>
       </c>
       <c r="F18">
-        <v>46.9389141112319</v>
+        <v>49.38051419845825</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>29.3573961932359</v>
+        <v>26.71070943253847</v>
       </c>
       <c r="J18">
-        <v>10.33862660786143</v>
+        <v>7.298970764638637</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.84222200686634</v>
+        <v>29.60413130993104</v>
       </c>
       <c r="C19">
-        <v>18.18468820046666</v>
+        <v>27.30033507310527</v>
       </c>
       <c r="D19">
-        <v>6.593934231644681</v>
+        <v>3.483407053399542</v>
       </c>
       <c r="E19">
-        <v>12.62801071029356</v>
+        <v>10.08898449364857</v>
       </c>
       <c r="F19">
-        <v>46.90786858371656</v>
+        <v>49.19412555254459</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>29.35039999359737</v>
+        <v>26.6361206663252</v>
       </c>
       <c r="J19">
-        <v>10.33855511434695</v>
+        <v>7.283749147305997</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.03279032380277</v>
+        <v>30.24086047750275</v>
       </c>
       <c r="C20">
-        <v>18.37785338911557</v>
+        <v>27.90037100089362</v>
       </c>
       <c r="D20">
-        <v>6.594154737623609</v>
+        <v>3.5149538636002</v>
       </c>
       <c r="E20">
-        <v>12.64176163357368</v>
+        <v>10.23578952576062</v>
       </c>
       <c r="F20">
-        <v>47.04839328150271</v>
+        <v>50.03411718761283</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>29.38242127288035</v>
+        <v>26.97390451273746</v>
       </c>
       <c r="J20">
-        <v>10.33900995875591</v>
+        <v>7.352656250114458</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.66711924577202</v>
+        <v>32.33156386736984</v>
       </c>
       <c r="C21">
-        <v>19.01849871185975</v>
+        <v>29.87797747440963</v>
       </c>
       <c r="D21">
-        <v>6.595662418526989</v>
+        <v>3.619972105067781</v>
       </c>
       <c r="E21">
-        <v>12.69103280890239</v>
+        <v>10.73018687132323</v>
       </c>
       <c r="F21">
-        <v>47.53454375060902</v>
+        <v>52.88040340468429</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>29.49941142358735</v>
+        <v>28.14791062915992</v>
       </c>
       <c r="J21">
-        <v>10.34286908724339</v>
+        <v>7.59166149729358</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.07649414427978</v>
+        <v>33.66465510130273</v>
       </c>
       <c r="C22">
-        <v>19.43022626763608</v>
+        <v>31.1449719162832</v>
       </c>
       <c r="D22">
-        <v>6.597212499407651</v>
+        <v>3.687828599904527</v>
       </c>
       <c r="E22">
-        <v>12.72549598711753</v>
+        <v>11.05457700136041</v>
       </c>
       <c r="F22">
-        <v>47.86235921231881</v>
+        <v>54.76252792416775</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>29.58286762590106</v>
+        <v>28.94696771976778</v>
       </c>
       <c r="J22">
-        <v>10.34712969354214</v>
+        <v>7.753927053941581</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.85852524198411</v>
+        <v>32.95600182403619</v>
       </c>
       <c r="C23">
-        <v>19.21116248563492</v>
+        <v>30.47086284601013</v>
       </c>
       <c r="D23">
-        <v>6.596333958065245</v>
+        <v>3.651686294107638</v>
       </c>
       <c r="E23">
-        <v>12.70689717935936</v>
+        <v>10.88129407373138</v>
       </c>
       <c r="F23">
-        <v>47.68649808026261</v>
+        <v>53.75569323972913</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>29.53768638124903</v>
+        <v>28.51739792191421</v>
       </c>
       <c r="J23">
-        <v>10.34469661102914</v>
+        <v>7.666733307966972</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.02234561615958</v>
+        <v>30.20608411574901</v>
       </c>
       <c r="C24">
-        <v>18.36727516791673</v>
+        <v>27.86757179142357</v>
       </c>
       <c r="D24">
-        <v>6.594139726520769</v>
+        <v>3.513224970385386</v>
       </c>
       <c r="E24">
-        <v>12.64099488513186</v>
+        <v>10.22772415351773</v>
       </c>
       <c r="F24">
-        <v>47.0406227752761</v>
+        <v>49.98790684679097</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>29.38062742536151</v>
+        <v>26.95521387761572</v>
       </c>
       <c r="J24">
-        <v>10.33897621601867</v>
+        <v>7.348845116036975</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.10313771746582</v>
+        <v>27.07891023653815</v>
       </c>
       <c r="C25">
-        <v>17.43203923071045</v>
+        <v>24.93086992330135</v>
       </c>
       <c r="D25">
-        <v>6.594241253644697</v>
+        <v>3.360915195521862</v>
       </c>
       <c r="E25">
-        <v>12.5797833842682</v>
+        <v>9.525983912646732</v>
       </c>
       <c r="F25">
-        <v>46.38947200627952</v>
+        <v>45.99504843438672</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>29.24130302879481</v>
+        <v>25.39080451921379</v>
       </c>
       <c r="J25">
-        <v>10.34025974244614</v>
+        <v>7.029101181062977</v>
       </c>
       <c r="K25">
         <v>0</v>
